--- a/Excel/仕様書.xlsx
+++ b/Excel/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -318,6 +318,27 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大浦</t>
+    <rPh sb="0" eb="2">
+      <t>オオウラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -714,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +842,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3321,27 +3345,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.69921875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +3400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="24" t="s">
         <v>13</v>
@@ -3393,8 +3426,11 @@
       <c r="J3" s="20">
         <v>1</v>
       </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
@@ -3417,8 +3453,11 @@
       <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K4" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3442,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -3465,8 +3504,11 @@
       <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="K6" s="36" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +3525,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8" s="1"/>
@@ -3491,7 +3533,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="25" t="s">
         <v>28</v>
       </c>
@@ -3502,7 +3544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
@@ -3512,8 +3554,11 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
@@ -3523,8 +3568,11 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
@@ -3534,9 +3582,12 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="30" t="s">
         <v>39</v>
       </c>
@@ -3544,40 +3595,52 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="19" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>45</v>
       </c>
@@ -3585,20 +3648,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="22" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
